--- a/doc/YM/Gantt.xlsx
+++ b/doc/YM/Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yiqing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yiqing\Desktop\BeatRunner\doc\YM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3958E85-4EE7-4908-8914-6EB3A5A50383}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE48577-11B5-4625-845F-02DBFDC3889B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="12" windowWidth="23016" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="2" r:id="rId1"/>
@@ -54,30 +54,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>1. Requirements Collection</t>
-  </si>
-  <si>
-    <t>2. Character control(movement) design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Character control(block and obscale) design </t>
-  </si>
-  <si>
-    <t>4. Programming</t>
-  </si>
-  <si>
-    <t>5. Testing individual</t>
-  </si>
-  <si>
-    <t>6. User Documentation</t>
-  </si>
-  <si>
-    <t>7. Combine coding testing</t>
-  </si>
-  <si>
-    <t>8. Installation</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -94,15 +70,39 @@
       <t>Team Lead 6</t>
     </r>
   </si>
+  <si>
+    <t>Requirements Collection</t>
+  </si>
+  <si>
+    <t>Character control(movement,camera,block and obstacle)) design</t>
+  </si>
+  <si>
+    <t>Design and Programming Camera following character</t>
+  </si>
+  <si>
+    <t>Programming movement</t>
+  </si>
+  <si>
+    <t>Programming hit obstacle and animation</t>
+  </si>
+  <si>
+    <t>Testing individual and debug</t>
+  </si>
+  <si>
+    <t>User Documentation</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,8 +129,13 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +202,12 @@
         <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -336,23 +347,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -371,26 +382,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8832C95A-0E18-4CBD-9281-E089698AA23E}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{23CF8D7E-72C3-4EC6-9ACF-97C98FA550AA}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{C511C446-EA76-44E8-B2A9-BA63F379F960}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{F068908D-8A8D-47E6-9C61-81729292D8AC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE1002"/>
+  <dimension ref="A1:AG1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -720,7 +734,7 @@
     <col min="10" max="31" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.25" customHeight="1">
+    <row r="1" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -765,9 +779,9 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="26" t="s">
-        <v>16</v>
+    <row r="2" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -854,183 +868,376 @@
       </c>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="19">
+    <row r="3" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="23">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="I3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AE3" s="1"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
     </row>
-    <row r="4" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="I4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AE4" s="1"/>
+      <c r="C4" s="21">
+        <v>6</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
     </row>
-    <row r="5" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16">
+        <v>6</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+    </row>
+    <row r="6" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16">
+        <v>18</v>
+      </c>
+      <c r="C6" s="21">
         <v>10</v>
       </c>
-      <c r="B5" s="19">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+    </row>
+    <row r="7" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21">
         <v>6</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22"/>
-      <c r="N5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AE5" s="1"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
     </row>
-    <row r="6" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="19">
-        <v>9</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="N6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AE6" s="1"/>
+    <row r="8" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
     </row>
-    <row r="7" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="19">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="22"/>
-      <c r="S7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AE7" s="1"/>
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
     </row>
-    <row r="8" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="19">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="S8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AE8" s="1"/>
+    <row r="10" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
     </row>
-    <row r="9" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="19">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="Q9" s="23"/>
-      <c r="S9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AE9" s="1"/>
+    <row r="11" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26">
+        <v>68</v>
+      </c>
+      <c r="C11" s="26">
+        <v>35</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
     </row>
-    <row r="10" spans="1:31" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="24">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21">
-        <f t="shared" ref="B11:C11" si="0">SUM(B3:B10)</f>
-        <v>42</v>
-      </c>
-      <c r="C11" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" ht="14.25" customHeight="1">
+    <row r="12" spans="1:33" ht="14.25" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1063,10 +1270,10 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:31" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:31" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:31" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:33" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:33" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:33" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:33" ht="14.25" customHeight="1"/>
     <row r="17" spans="2:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="2:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:3" ht="14.25" customHeight="1"/>
@@ -1078,8 +1285,8 @@
     <row r="25" spans="2:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="2:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="2:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="2:3" ht="14.25" customHeight="1"/>

--- a/doc/YM/Gantt.xlsx
+++ b/doc/YM/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yiqing\Desktop\BeatRunner\doc\YM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE48577-11B5-4625-845F-02DBFDC3889B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867636CE-D185-425D-8CD1-1B60C44246A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Programming movement</t>
   </si>
   <si>
-    <t>Programming hit obstacle and animation</t>
-  </si>
-  <si>
     <t>Testing individual and debug</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Installation</t>
+  </si>
+  <si>
+    <t>Programming hit obstacle and test case</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,6 +133,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -209,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -350,9 +356,30 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -363,7 +390,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -388,7 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -398,6 +424,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,7 +751,7 @@
   <dimension ref="A1:AG1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -869,17 +901,17 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="16">
         <v>5</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>3</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -910,19 +942,19 @@
       <c r="AG3" s="16"/>
     </row>
     <row r="4" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="16">
         <v>6</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>6</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="16"/>
       <c r="I4" s="19"/>
       <c r="J4" s="16"/>
@@ -951,21 +983,21 @@
       <c r="AG4" s="16"/>
     </row>
     <row r="5" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="16">
         <v>6</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>4</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -992,13 +1024,13 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="16">
         <v>18</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>10</v>
       </c>
       <c r="D6" s="16"/>
@@ -1007,12 +1039,12 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="18"/>
-      <c r="O6" s="27"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
@@ -1033,13 +1065,13 @@
       <c r="AG6" s="16"/>
     </row>
     <row r="7" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="20" t="s">
-        <v>13</v>
+      <c r="A7" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="16">
         <v>15</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>6</v>
       </c>
       <c r="D7" s="16"/>
@@ -1048,12 +1080,12 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="29"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
@@ -1074,13 +1106,13 @@
       <c r="AG7" s="16"/>
     </row>
     <row r="8" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="20" t="s">
-        <v>14</v>
+      <c r="A8" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="16">
         <v>10</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>3</v>
       </c>
       <c r="D8" s="16"/>
@@ -1098,8 +1130,8 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
       <c r="U8" s="17"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
@@ -1115,13 +1147,13 @@
       <c r="AG8" s="16"/>
     </row>
     <row r="9" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="20" t="s">
-        <v>15</v>
+      <c r="A9" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>3</v>
       </c>
       <c r="D9" s="16"/>
@@ -1142,8 +1174,8 @@
       <c r="S9" s="19"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -1156,13 +1188,13 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="20" t="s">
-        <v>16</v>
+      <c r="A10" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="16"/>
@@ -1185,7 +1217,7 @@
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
-      <c r="X10" s="27"/>
+      <c r="X10" s="26"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
@@ -1197,45 +1229,45 @@
       <c r="AG10" s="16"/>
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>68</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>35</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1">
       <c r="A12" s="11"/>

--- a/doc/YM/Gantt.xlsx
+++ b/doc/YM/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yiqing\Desktop\BeatRunner\doc\YM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867636CE-D185-425D-8CD1-1B60C44246A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C90D9D-7F54-459F-B266-A0449CABD61A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,12 +192,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFE7E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBE4D5"/>
         <bgColor rgb="FFFBE4D5"/>
       </patternFill>
@@ -210,12 +204,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -296,8 +308,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -305,28 +321,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -337,17 +331,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -382,6 +365,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -390,7 +493,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -406,25 +509,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,7 +901,7 @@
   <dimension ref="A1:AG1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -901,373 +1051,374 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="21">
         <v>5</v>
       </c>
       <c r="C3" s="22">
         <v>3</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
     </row>
     <row r="4" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="21">
         <v>6</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="28">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
     </row>
     <row r="5" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="21">
         <v>6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="28">
         <v>4</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
     </row>
     <row r="6" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="20">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
+      <c r="C6" s="28">
+        <v>15</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
     </row>
     <row r="7" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="21">
         <v>15</v>
       </c>
-      <c r="C7" s="20">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
+      <c r="C7" s="28">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
     </row>
     <row r="8" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="21">
         <v>10</v>
       </c>
-      <c r="C8" s="20">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
+      <c r="C8" s="28">
+        <v>6</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
     </row>
     <row r="9" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="20">
-        <v>3</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
+      <c r="C9" s="28">
+        <v>6</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
     </row>
     <row r="10" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="36">
         <v>2</v>
       </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
+      <c r="C10" s="37">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="18">
         <v>68</v>
       </c>
-      <c r="C11" s="25">
-        <v>35</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
+      <c r="C11" s="18">
+        <f>SUM(C3:C10)</f>
+        <v>54</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1">
       <c r="A12" s="11"/>
